--- a/Rutuja_Pimpalgaonkar_HomeLoan_CaseStudy.xlsx
+++ b/Rutuja_Pimpalgaonkar_HomeLoan_CaseStudy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsatishr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/rutuja_satishrao-pimpalgaonkar_capgemini_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547AE963-456B-4210-A2F0-2AEB772559A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="245" documentId="8_{003213AA-DB28-4F8D-95A4-9A3AD7205264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{327683C9-D50C-4C4A-8E58-C219AE5FB12A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{7EE7EDBC-CF0B-49F4-B45E-46037F925C8D}"/>
   </bookViews>
@@ -504,6 +504,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1498,10 +1502,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43412E6-5B50-4CC7-882C-5917ED5AE876}">
-  <dimension ref="C3:S29"/>
+  <dimension ref="C3:S118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="74" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1831,51 +1835,51 @@
       <c r="F23" s="16"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="26" spans="3:19">
-      <c r="D26" s="25" t="s">
+    <row r="115" spans="7:14">
+      <c r="G115" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-    </row>
-    <row r="27" spans="3:19">
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-    </row>
-    <row r="28" spans="3:19">
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-    </row>
-    <row r="29" spans="3:19">
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
+      <c r="H115" s="26"/>
+      <c r="I115" s="26"/>
+      <c r="J115" s="26"/>
+      <c r="K115" s="26"/>
+      <c r="L115" s="26"/>
+      <c r="M115" s="26"/>
+      <c r="N115" s="26"/>
+    </row>
+    <row r="116" spans="7:14">
+      <c r="G116" s="26"/>
+      <c r="H116" s="26"/>
+      <c r="I116" s="26"/>
+      <c r="J116" s="26"/>
+      <c r="K116" s="26"/>
+      <c r="L116" s="26"/>
+      <c r="M116" s="26"/>
+      <c r="N116" s="26"/>
+    </row>
+    <row r="117" spans="7:14">
+      <c r="G117" s="26"/>
+      <c r="H117" s="26"/>
+      <c r="I117" s="26"/>
+      <c r="J117" s="26"/>
+      <c r="K117" s="26"/>
+      <c r="L117" s="26"/>
+      <c r="M117" s="26"/>
+      <c r="N117" s="26"/>
+    </row>
+    <row r="118" spans="7:14">
+      <c r="G118" s="26"/>
+      <c r="H118" s="26"/>
+      <c r="I118" s="26"/>
+      <c r="J118" s="26"/>
+      <c r="K118" s="26"/>
+      <c r="L118" s="26"/>
+      <c r="M118" s="26"/>
+      <c r="N118" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="D26:K29"/>
+    <mergeCell ref="G115:N118"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="G3:J4"/>
     <mergeCell ref="C9:D9"/>
